--- a/ファイルの転機/fils/出席率_大橋校（３年：北村） (5).xlsx
+++ b/ファイルの転機/fils/出席率_大橋校（３年：北村） (5).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20895" windowHeight="10155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20895" windowHeight="10155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3年アスリート_第▼週" sheetId="114" r:id="rId1"/>
@@ -2354,7 +2354,7 @@
   </sheetPr>
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -3487,7 +3487,7 @@
       <c r="G37" s="52"/>
       <c r="H37" s="60"/>
       <c r="I37" s="60">
-        <v>1</v>
+        <v>336</v>
       </c>
       <c r="J37" s="62"/>
       <c r="K37" s="62"/>
@@ -3653,7 +3653,7 @@
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -3851,11 +3851,15 @@
       <c r="G9" s="51"/>
       <c r="H9" s="59"/>
       <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="J9" s="59">
+        <v>0.99702380952380998</v>
+      </c>
       <c r="K9" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="18"/>
+      <c r="L9" s="18">
+        <v>1</v>
+      </c>
       <c r="N9" s="45"/>
       <c r="O9" s="45"/>
       <c r="P9" s="45"/>
@@ -3882,11 +3886,15 @@
       <c r="G10" s="52"/>
       <c r="H10" s="60"/>
       <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
+      <c r="J10" s="62">
+        <v>1</v>
+      </c>
       <c r="K10" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="19"/>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
       <c r="N10" s="46"/>
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
@@ -3913,11 +3921,15 @@
       <c r="G11" s="52"/>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="62"/>
+      <c r="J11" s="62">
+        <v>0.97619047619047605</v>
+      </c>
       <c r="K11" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="19"/>
+      <c r="L11" s="19">
+        <v>8</v>
+      </c>
       <c r="N11" s="46"/>
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
@@ -3944,11 +3956,15 @@
       <c r="G12" s="52"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="62"/>
+      <c r="J12" s="62">
+        <v>1</v>
+      </c>
       <c r="K12" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="19"/>
+      <c r="L12" s="19">
+        <v>0</v>
+      </c>
       <c r="N12" s="46"/>
       <c r="O12" s="46"/>
       <c r="P12" s="46"/>
@@ -3975,11 +3991,15 @@
       <c r="G13" s="53"/>
       <c r="H13" s="61"/>
       <c r="I13" s="74"/>
-      <c r="J13" s="61"/>
+      <c r="J13" s="61">
+        <v>0.98214285714285698</v>
+      </c>
       <c r="K13" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="20">
+        <v>6</v>
+      </c>
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
       <c r="P13" s="47"/>
@@ -4006,11 +4026,15 @@
       <c r="G14" s="54"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="J14" s="62">
+        <v>1</v>
+      </c>
       <c r="K14" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="21"/>
+      <c r="L14" s="21">
+        <v>0</v>
+      </c>
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
       <c r="P14" s="45"/>
@@ -4037,11 +4061,15 @@
       <c r="G15" s="52"/>
       <c r="H15" s="60"/>
       <c r="I15" s="60"/>
-      <c r="J15" s="62"/>
+      <c r="J15" s="62">
+        <v>0.96428571428571397</v>
+      </c>
       <c r="K15" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="19">
+        <v>12</v>
+      </c>
       <c r="N15" s="46"/>
       <c r="O15" s="46"/>
       <c r="P15" s="46"/>
@@ -4068,11 +4096,15 @@
       <c r="G16" s="52"/>
       <c r="H16" s="60"/>
       <c r="I16" s="60"/>
-      <c r="J16" s="62"/>
+      <c r="J16" s="62">
+        <v>0.96428571428571397</v>
+      </c>
       <c r="K16" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="58"/>
+      <c r="L16" s="58">
+        <v>12</v>
+      </c>
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
       <c r="P16" s="46"/>
@@ -4099,11 +4131,15 @@
       <c r="G17" s="52"/>
       <c r="H17" s="60"/>
       <c r="I17" s="60"/>
-      <c r="J17" s="62"/>
+      <c r="J17" s="62">
+        <v>1</v>
+      </c>
       <c r="K17" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="19"/>
+      <c r="L17" s="19">
+        <v>0</v>
+      </c>
       <c r="N17" s="46"/>
       <c r="O17" s="46"/>
       <c r="P17" s="46"/>
@@ -4130,11 +4166,15 @@
       <c r="G18" s="53"/>
       <c r="H18" s="61"/>
       <c r="I18" s="74"/>
-      <c r="J18" s="61"/>
+      <c r="J18" s="61">
+        <v>0.98214285714285698</v>
+      </c>
       <c r="K18" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="20">
+        <v>6</v>
+      </c>
       <c r="N18" s="47"/>
       <c r="O18" s="47"/>
       <c r="P18" s="47"/>
@@ -4161,11 +4201,15 @@
       <c r="G19" s="54"/>
       <c r="H19" s="62"/>
       <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="J19" s="62">
+        <v>1</v>
+      </c>
       <c r="K19" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="21">
+        <v>0</v>
+      </c>
       <c r="N19" s="45"/>
       <c r="O19" s="45"/>
       <c r="P19" s="45"/>
@@ -4192,11 +4236,15 @@
       <c r="G20" s="52"/>
       <c r="H20" s="60"/>
       <c r="I20" s="60"/>
-      <c r="J20" s="62"/>
+      <c r="J20" s="62">
+        <v>1</v>
+      </c>
       <c r="K20" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="19"/>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
       <c r="N20" s="46"/>
       <c r="O20" s="46"/>
       <c r="P20" s="46"/>
@@ -4223,11 +4271,15 @@
       <c r="G21" s="52"/>
       <c r="H21" s="60"/>
       <c r="I21" s="60"/>
-      <c r="J21" s="62"/>
+      <c r="J21" s="62">
+        <v>0.98214285714285698</v>
+      </c>
       <c r="K21" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="19"/>
+      <c r="L21" s="19">
+        <v>6</v>
+      </c>
       <c r="N21" s="46"/>
       <c r="O21" s="46"/>
       <c r="P21" s="46"/>
@@ -4254,11 +4306,15 @@
       <c r="G22" s="52"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
-      <c r="J22" s="62"/>
+      <c r="J22" s="62">
+        <v>1</v>
+      </c>
       <c r="K22" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="19"/>
+      <c r="L22" s="19">
+        <v>0</v>
+      </c>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
       <c r="P22" s="46"/>
@@ -4285,11 +4341,15 @@
       <c r="G23" s="53"/>
       <c r="H23" s="61"/>
       <c r="I23" s="74"/>
-      <c r="J23" s="61"/>
+      <c r="J23" s="61">
+        <v>1</v>
+      </c>
       <c r="K23" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="20"/>
+      <c r="L23" s="20">
+        <v>0</v>
+      </c>
       <c r="N23" s="47"/>
       <c r="O23" s="47"/>
       <c r="P23" s="47"/>
@@ -4316,11 +4376,15 @@
       <c r="G24" s="54"/>
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
+      <c r="J24" s="62">
+        <v>1</v>
+      </c>
       <c r="K24" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="21"/>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
       <c r="P24" s="45"/>
@@ -4347,11 +4411,15 @@
       <c r="G25" s="52"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>
-      <c r="J25" s="62"/>
+      <c r="J25" s="62">
+        <v>0.98214285714285698</v>
+      </c>
       <c r="K25" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="19"/>
+      <c r="L25" s="19">
+        <v>6</v>
+      </c>
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
       <c r="P25" s="46"/>
@@ -4379,11 +4447,15 @@
       <c r="G26" s="52"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
-      <c r="J26" s="62"/>
+      <c r="J26" s="62">
+        <v>0.99702380952380998</v>
+      </c>
       <c r="K26" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L26" s="19"/>
+      <c r="L26" s="19">
+        <v>1</v>
+      </c>
       <c r="N26" s="46"/>
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
@@ -4410,11 +4482,15 @@
       <c r="G27" s="52"/>
       <c r="H27" s="60"/>
       <c r="I27" s="60"/>
-      <c r="J27" s="62"/>
+      <c r="J27" s="62">
+        <v>1</v>
+      </c>
       <c r="K27" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="19"/>
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
       <c r="N27" s="46"/>
       <c r="O27" s="46"/>
       <c r="P27" s="46"/>
@@ -4441,11 +4517,15 @@
       <c r="G28" s="53"/>
       <c r="H28" s="61"/>
       <c r="I28" s="74"/>
-      <c r="J28" s="61"/>
+      <c r="J28" s="61">
+        <v>1</v>
+      </c>
       <c r="K28" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="L28" s="20"/>
+      <c r="L28" s="20">
+        <v>0</v>
+      </c>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
       <c r="P28" s="47"/>
@@ -4472,11 +4552,15 @@
       <c r="G29" s="54"/>
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="J29" s="62">
+        <v>1</v>
+      </c>
       <c r="K29" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L29" s="73"/>
+      <c r="L29" s="73">
+        <v>0</v>
+      </c>
       <c r="N29" s="45"/>
       <c r="O29" s="45"/>
       <c r="P29" s="45"/>
@@ -4503,11 +4587,15 @@
       <c r="G30" s="52"/>
       <c r="H30" s="60"/>
       <c r="I30" s="60"/>
-      <c r="J30" s="62"/>
+      <c r="J30" s="62">
+        <v>0.91666666666666696</v>
+      </c>
       <c r="K30" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="19"/>
+      <c r="L30" s="19">
+        <v>28</v>
+      </c>
       <c r="N30" s="46"/>
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
@@ -4535,11 +4623,15 @@
       <c r="G31" s="52"/>
       <c r="H31" s="60"/>
       <c r="I31" s="60"/>
-      <c r="J31" s="62"/>
+      <c r="J31" s="62">
+        <v>0.99107142857142905</v>
+      </c>
       <c r="K31" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="19"/>
+      <c r="L31" s="19">
+        <v>3</v>
+      </c>
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
       <c r="P31" s="46"/>
@@ -4566,11 +4658,15 @@
       <c r="G32" s="52"/>
       <c r="H32" s="60"/>
       <c r="I32" s="60"/>
-      <c r="J32" s="62"/>
+      <c r="J32" s="62">
+        <v>1</v>
+      </c>
       <c r="K32" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="19"/>
+      <c r="L32" s="19">
+        <v>0</v>
+      </c>
       <c r="N32" s="46"/>
       <c r="O32" s="46"/>
       <c r="P32" s="46"/>
@@ -4597,11 +4693,15 @@
       <c r="G33" s="53"/>
       <c r="H33" s="61"/>
       <c r="I33" s="74"/>
-      <c r="J33" s="75"/>
+      <c r="J33" s="75">
+        <v>1</v>
+      </c>
       <c r="K33" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="L33" s="20"/>
+      <c r="L33" s="20">
+        <v>0</v>
+      </c>
       <c r="N33" s="47"/>
       <c r="O33" s="47"/>
       <c r="P33" s="47"/>
@@ -4628,11 +4728,15 @@
       <c r="G34" s="54"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
+      <c r="J34" s="62">
+        <v>0.98214285714285698</v>
+      </c>
       <c r="K34" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="21"/>
+      <c r="L34" s="21">
+        <v>6</v>
+      </c>
       <c r="N34" s="45"/>
       <c r="O34" s="45"/>
       <c r="P34" s="45"/>
@@ -4659,11 +4763,15 @@
       <c r="G35" s="52"/>
       <c r="H35" s="60"/>
       <c r="I35" s="60"/>
-      <c r="J35" s="62"/>
+      <c r="J35" s="62">
+        <v>1</v>
+      </c>
       <c r="K35" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L35" s="19"/>
+      <c r="L35" s="19">
+        <v>0</v>
+      </c>
       <c r="N35" s="46"/>
       <c r="O35" s="46"/>
       <c r="P35" s="46"/>
@@ -4690,11 +4798,15 @@
       <c r="G36" s="52"/>
       <c r="H36" s="60"/>
       <c r="I36" s="60"/>
-      <c r="J36" s="62"/>
+      <c r="J36" s="62">
+        <v>1</v>
+      </c>
       <c r="K36" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="19"/>
+      <c r="L36" s="19">
+        <v>0</v>
+      </c>
       <c r="N36" s="46"/>
       <c r="O36" s="46"/>
       <c r="P36" s="46"/>
@@ -4721,11 +4833,15 @@
       <c r="G37" s="52"/>
       <c r="H37" s="60"/>
       <c r="I37" s="60"/>
-      <c r="J37" s="62"/>
+      <c r="J37" s="62">
+        <v>1</v>
+      </c>
       <c r="K37" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L37" s="19"/>
+      <c r="L37" s="19">
+        <v>0</v>
+      </c>
       <c r="N37" s="46"/>
       <c r="O37" s="46"/>
       <c r="P37" s="46"/>
